--- a/trabalho_motores/resultados/dados.xlsx
+++ b/trabalho_motores/resultados/dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9432"/>
+    <workbookView windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -38,6 +38,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -47,6 +85,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,7 +107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,7 +115,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,31 +160,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,59 +169,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,19 +183,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,37 +339,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,121 +363,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,15 +416,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -436,21 +427,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,147 +450,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,10 +950,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.8030303030303" defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
+  </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/trabalho_motores/resultados/dados.xlsx
+++ b/trabalho_motores/resultados/dados.xlsx
@@ -7,18 +7,38 @@
     <workbookView windowWidth="23040" windowHeight="9336"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="geometria" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>escape</t>
+  </si>
+  <si>
+    <t>admissao</t>
+  </si>
+  <si>
+    <t>d_valvula</t>
+  </si>
+  <si>
+    <t>h_valvula</t>
+  </si>
+  <si>
+    <t>d_int</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -38,16 +58,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,6 +81,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -70,29 +97,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,15 +126,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -122,30 +180,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,21 +189,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,43 +203,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,19 +275,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,13 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,97 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,6 +422,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -417,16 +452,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,147 +494,132 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,10 +631,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -624,9 +644,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -947,17 +970,131 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8030303030303" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.8030303030303" defaultRowHeight="13.8" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="18.1818181818182" customWidth="1"/>
+    <col min="1" max="2" width="9.09090909090909" customWidth="1"/>
+    <col min="3" max="3" width="6.45454545454545" customWidth="1"/>
+    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="14.2727272727273" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>24.88</v>
+      </c>
+      <c r="B3">
+        <v>4.93</v>
+      </c>
+      <c r="C3">
+        <v>20.48</v>
+      </c>
+      <c r="D3">
+        <v>28.44</v>
+      </c>
+      <c r="E3">
+        <v>5.1</v>
+      </c>
+      <c r="F3">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>25.1</v>
+      </c>
+      <c r="B4">
+        <v>4.9</v>
+      </c>
+      <c r="C4">
+        <v>19.85</v>
+      </c>
+      <c r="D4">
+        <v>28.4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>24.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>24.9</v>
+      </c>
+      <c r="B5">
+        <v>4.9</v>
+      </c>
+      <c r="C5">
+        <v>20.5</v>
+      </c>
+      <c r="D5">
+        <v>28.45</v>
+      </c>
+      <c r="E5">
+        <v>4.95</v>
+      </c>
+      <c r="F5">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>24.47</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
